--- a/medicine/Sexualité et sexologie/Alt_porn/Alt_porn.xlsx
+++ b/medicine/Sexualité et sexologie/Alt_porn/Alt_porn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Alt porn, appelée aussi Alt-porn, Altporn, Alternaporn ou simplement Alt[1], est une contre-culture qui relie la pornographie et les différents mouvements alternatifs comme le gothique, le punk et la cyberculture.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Alt porn, appelée aussi Alt-porn, Altporn, Alternaporn ou simplement Alt, est une contre-culture qui relie la pornographie et les différents mouvements alternatifs comme le gothique, le punk et la cyberculture.
 L’Alt porn est apparue aux États-Unis dans les années 1990. Elle est conçue sur un plan esthétique particulier : les modèles ont souvent des modifications corporelles comme des piercings ou des tatouages. Les films ou les photos peuvent être softcore ou hardcore.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondé en 1992 par Amelia G.[1] et co-dirigé par Forrest Black, le magazine Blue Blood[2] participe à la création de cette nouvelle approche de la pornographie par le biais d'une esthétique alliant gothique, punk, tatouage, prothèse corporelle, piercing, marginalité, etc. Ce qui est vu comme une contre-culture érotique est une volonté de montrer qu'il existe autre chose que la pornographie homogène produite à grande échelle. La création de blueblood.com au début des années 2000 permet la diffusion à plus grande échelle du mouvement créant par le fait même un lieu de partage, d'exposition, de confrontation, de discussion. Il est à noter qu'il ne s'agit pas seulement d'un site à contenu pornographique. On y retrouve de la littérature, des entrevues, des textes d'opinion, des œuvres d'art, et plus encore. 
-Le mouvement Alt porn prend son essor avec la venue de sites Web comme GothicSluts.com, Raverporn.net (renommé plus tard EroticBPM.com), blueblood.com et, en 2003, Altporn.net, pour ne nommer que ceux-là. Selon Blue Blood, ils sont « la pure manifestation d'une communauté soudée et grandissante, dédiée à la découverte de soi, à l'expression de soi, au questionnement du statu quo et, généralement, dérangeante. »[2]  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondé en 1992 par Amelia G. et co-dirigé par Forrest Black, le magazine Blue Blood participe à la création de cette nouvelle approche de la pornographie par le biais d'une esthétique alliant gothique, punk, tatouage, prothèse corporelle, piercing, marginalité, etc. Ce qui est vu comme une contre-culture érotique est une volonté de montrer qu'il existe autre chose que la pornographie homogène produite à grande échelle. La création de blueblood.com au début des années 2000 permet la diffusion à plus grande échelle du mouvement créant par le fait même un lieu de partage, d'exposition, de confrontation, de discussion. Il est à noter qu'il ne s'agit pas seulement d'un site à contenu pornographique. On y retrouve de la littérature, des entrevues, des textes d'opinion, des œuvres d'art, et plus encore. 
+Le mouvement Alt porn prend son essor avec la venue de sites Web comme GothicSluts.com, Raverporn.net (renommé plus tard EroticBPM.com), blueblood.com et, en 2003, Altporn.net, pour ne nommer que ceux-là. Selon Blue Blood, ils sont « la pure manifestation d'une communauté soudée et grandissante, dédiée à la découverte de soi, à l'expression de soi, au questionnement du statu quo et, généralement, dérangeante. »  
 Alt porn fait partie de la DIY culture, indépendant, auto-productions[réf. nécessaire].
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Quelques représentants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Eon McKai
 Dave Naz
